--- a/xauusd_weekly.xlsx
+++ b/xauusd_weekly.xlsx
@@ -724,7 +724,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -742,6 +742,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -825,7 +829,7 @@
   <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="T6" activeCellId="0" pane="topLeft" sqref="T6:U26"/>
+      <selection activeCell="M23" activeCellId="0" pane="topLeft" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2279,7 +2283,7 @@
         <f aca="false">IF(H23&lt;I23,H23, I23)</f>
         <v>17.8100000000002</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="5" t="n">
         <v>17</v>
       </c>
       <c r="N23" s="0" t="n">
